--- a/Sprint 4/Sprint_4 Burndown-Backlog.xlsx
+++ b/Sprint 4/Sprint_4 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\sistema\Sistema_Clinica\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaquiel\Desktop\PDS\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -548,9 +548,6 @@
     <xf numFmtId="4" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,6 +569,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,11 +590,11 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -611,8 +611,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2737,25 +2737,25 @@
                   <c:v>32.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.630000000000006</c:v>
+                  <c:v>28.130000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.630000000000006</c:v>
+                  <c:v>26.630000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.630000000000006</c:v>
+                  <c:v>25.380000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.130000000000006</c:v>
+                  <c:v>21.880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.930000000000007</c:v>
+                  <c:v>16.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.930000000000007</c:v>
+                  <c:v>14.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.180000000000007</c:v>
+                  <c:v>10.530000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,11 +2783,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="152172624"/>
-        <c:axId val="152207728"/>
+        <c:axId val="175210024"/>
+        <c:axId val="175209240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152172624"/>
+        <c:axId val="175210024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2868,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152207728"/>
+        <c:crossAx val="175209240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2876,7 +2876,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152207728"/>
+        <c:axId val="175209240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,7 +2959,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152172624"/>
+        <c:crossAx val="175210024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3294,11 +3294,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="152975760"/>
-        <c:axId val="152416128"/>
+        <c:axId val="175206104"/>
+        <c:axId val="175210808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152975760"/>
+        <c:axId val="175206104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,7 +3372,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152416128"/>
+        <c:crossAx val="175210808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3380,7 +3380,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152416128"/>
+        <c:axId val="175210808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,7 +3463,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152975760"/>
+        <c:crossAx val="175206104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3798,11 +3798,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="153186224"/>
-        <c:axId val="153277080"/>
+        <c:axId val="175209632"/>
+        <c:axId val="175206496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153186224"/>
+        <c:axId val="175209632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,7 +3876,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153277080"/>
+        <c:crossAx val="175206496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3884,7 +3884,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153277080"/>
+        <c:axId val="175206496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +3967,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153186224"/>
+        <c:crossAx val="175209632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4256,25 +4256,25 @@
                   <c:v>10.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.65</c:v>
+                  <c:v>9.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.65</c:v>
+                  <c:v>7.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.65</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.65</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.65</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.65</c:v>
+                  <c:v>1.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,11 +4302,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="153168280"/>
-        <c:axId val="153340536"/>
+        <c:axId val="175207672"/>
+        <c:axId val="174556384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153168280"/>
+        <c:axId val="175207672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4348,6 +4348,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4379,7 +4380,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153340536"/>
+        <c:crossAx val="174556384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4387,7 +4388,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153340536"/>
+        <c:axId val="174556384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4438,6 +4439,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4469,7 +4471,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153168280"/>
+        <c:crossAx val="175207672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4482,6 +4484,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4951,7 +4954,7 @@
   <dimension ref="A1:AB1048568"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4968,16 +4971,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5002,27 +5005,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="32">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5046,9 +5049,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5061,8 +5064,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5084,7 +5087,7 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -5096,14 +5099,14 @@
       <c r="D4" s="5">
         <v>3.3</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <f>SUM(D4:D5)</f>
         <v>5.8</v>
       </c>
       <c r="F4" s="21">
         <v>3.3</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <f>SUM(F4:F13)</f>
         <v>32.930000000000007</v>
       </c>
@@ -5130,7 +5133,7 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="23" t="s">
         <v>44</v>
       </c>
@@ -5140,11 +5143,11 @@
       <c r="D5" s="5">
         <v>2.5</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="21">
         <v>2.5</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="6" t="s">
         <v>39</v>
       </c>
@@ -5169,7 +5172,7 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -5181,14 +5184,14 @@
       <c r="D6" s="21">
         <v>3</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <f>SUM(D6:D7)</f>
         <v>5.25</v>
       </c>
       <c r="F6" s="21">
         <v>3</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="6" t="s">
         <v>39</v>
       </c>
@@ -5213,7 +5216,7 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="23" t="s">
         <v>44</v>
       </c>
@@ -5223,11 +5226,11 @@
       <c r="D7" s="21">
         <v>2.25</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="21">
         <v>2.25</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="6" t="s">
         <v>39</v>
       </c>
@@ -5252,7 +5255,7 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -5264,14 +5267,14 @@
       <c r="D8" s="21">
         <v>3.33</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <f t="shared" ref="E8" si="0">SUM(D8:D9)</f>
         <v>6.33</v>
       </c>
       <c r="F8" s="21">
         <v>3.33</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="6" t="s">
         <v>39</v>
       </c>
@@ -5296,7 +5299,7 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="23" t="s">
         <v>44</v>
       </c>
@@ -5306,11 +5309,11 @@
       <c r="D9" s="21">
         <v>3</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="6" t="s">
         <v>39</v>
       </c>
@@ -5335,7 +5338,7 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -5347,14 +5350,14 @@
       <c r="D10" s="21">
         <v>3.2</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <f t="shared" ref="E10:E12" si="1">SUM(D10:D11)</f>
         <v>5.95</v>
       </c>
       <c r="F10" s="21">
         <v>3.2</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="6" t="s">
         <v>39</v>
       </c>
@@ -5379,7 +5382,7 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="23" t="s">
         <v>44</v>
       </c>
@@ -5389,11 +5392,11 @@
       <c r="D11" s="21">
         <v>2.75</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="21">
         <v>2.75</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="6" t="s">
         <v>39</v>
       </c>
@@ -5418,7 +5421,7 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -5430,14 +5433,14 @@
       <c r="D12" s="21">
         <v>5.4</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <f t="shared" si="1"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="F12" s="21">
         <v>5.4</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="6" t="s">
         <v>39</v>
       </c>
@@ -5461,8 +5464,8 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
       <c r="B13" s="22" t="s">
         <v>48</v>
       </c>
@@ -5472,11 +5475,11 @@
       <c r="D13" s="21">
         <v>4.2</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="21">
         <v>4.2</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="6" t="s">
         <v>39</v>
       </c>
@@ -5633,6 +5636,18 @@
     <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="A12:A13"/>
@@ -5640,18 +5655,6 @@
     <mergeCell ref="G4:G13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I3">
     <cfRule type="expression" dxfId="127" priority="2">
@@ -5675,7 +5678,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5903,39 +5906,39 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>29.630000000000006</v>
+        <v>28.130000000000006</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>29.630000000000006</v>
+        <v>26.630000000000006</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>29.630000000000006</v>
+        <v>25.380000000000006</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>27.130000000000006</v>
+        <v>21.880000000000006</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>23.930000000000007</v>
+        <v>16.680000000000007</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>23.930000000000007</v>
+        <v>14.680000000000007</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>21.180000000000007</v>
+        <v>10.530000000000006</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>217.99000000000007</v>
+        <v>176.84000000000006</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>27.248750000000008</v>
+        <v>22.105000000000008</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -6007,39 +6010,39 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>2.75</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>11.75</v>
+        <v>22.4</v>
       </c>
       <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>1.46875</v>
+        <v>2.8</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -6165,36 +6168,34 @@
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="14">
         <f>Izaquiel!E9</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G12" s="14">
-        <f>Izaquiel!G9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="14">
-        <f>Izaquiel!I9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K12" s="14">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="L12" s="14">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>1.33125</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -6731,7 +6732,7 @@
   <dimension ref="A1:S1048575"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -6824,28 +6825,28 @@
       <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="K3" s="36" t="s">
@@ -6865,14 +6866,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="8"/>
@@ -7182,18 +7183,18 @@
         <v>0</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="14">
         <v>0</v>
       </c>
@@ -7227,18 +7228,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="14">
         <v>0</v>
       </c>
@@ -7272,18 +7273,18 @@
         <v>0.74375000000000002</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="14">
         <v>0</v>
       </c>
@@ -7322,16 +7323,6 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7346,6 +7337,16 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="26" priority="2">
@@ -7485,28 +7486,28 @@
       <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="K3" s="36" t="s">
@@ -7526,14 +7527,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="8"/>
@@ -7851,10 +7852,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="24">
         <v>0</v>
       </c>
@@ -7896,10 +7897,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="24">
         <v>0</v>
       </c>
@@ -7941,10 +7942,10 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="24">
         <v>0</v>
       </c>
@@ -7984,12 +7985,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -8004,6 +7999,12 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L14">
     <cfRule type="expression" dxfId="19" priority="12">
@@ -8065,8 +8066,8 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8158,28 +8159,28 @@
       <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="K3" s="36" t="s">
@@ -8199,14 +8200,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="8"/>
@@ -8287,39 +8288,39 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>9.15</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>7.65</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>6.4</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>5.4</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>0</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>85.2</v>
+        <v>44.05</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>10.65</v>
+        <v>5.5062499999999996</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -8391,39 +8392,39 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.33125</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -8487,13 +8488,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F11" s="14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G11" s="14">
         <v>0</v>
@@ -8509,11 +8510,11 @@
       </c>
       <c r="K11" s="14">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="L11" s="14">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -8524,10 +8525,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="14">
         <v>0</v>
       </c>
@@ -8569,10 +8570,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="14">
         <v>0</v>
       </c>
@@ -8614,10 +8615,10 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="14">
         <v>0</v>
       </c>
@@ -8631,24 +8632,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K14" s="14">
         <f>SUM(C14:J14)</f>
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L14" s="14">
         <f>K14/A$3</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8657,12 +8658,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -8677,6 +8672,12 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L14">
     <cfRule type="expression" dxfId="9" priority="10">

--- a/Sprint 4/Sprint_4 Burndown-Backlog.xlsx
+++ b/Sprint 4/Sprint_4 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\sistema\Sistema_Clinica\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\SistemaC\SistemaC\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>(hrs)</t>
-  </si>
-  <si>
-    <t>Terça
-20/09/2016</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -126,34 +122,6 @@
   </si>
   <si>
     <t>DIOGO DATA</t>
-  </si>
-  <si>
-    <t>Quarta
-21/09/2016</t>
-  </si>
-  <si>
-    <t>Quinta
-22/09/2016</t>
-  </si>
-  <si>
-    <t>Sexta
-23/09/2016</t>
-  </si>
-  <si>
-    <t>Sábado
-24/09/2016</t>
-  </si>
-  <si>
-    <t>Domingo
-25/09/2016</t>
-  </si>
-  <si>
-    <t>Segunda
-26/09/2016</t>
-  </si>
-  <si>
-    <t>Terça
-27/09/2016</t>
   </si>
   <si>
     <t>Feito</t>
@@ -476,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,10 +552,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2558,35 +2532,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-20/09/2016</c:v>
+04/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-21/09/2016</c:v>
+05/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-22/09/2016</c:v>
+06/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-23/09/2016</c:v>
+07/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-24/09/2016</c:v>
+08/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-25/09/2016</c:v>
+09/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-26/09/2016</c:v>
+10/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-27/09/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2691,35 +2665,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-20/09/2016</c:v>
+04/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-21/09/2016</c:v>
+05/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-22/09/2016</c:v>
+06/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-23/09/2016</c:v>
+07/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-24/09/2016</c:v>
+08/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-25/09/2016</c:v>
+09/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-26/09/2016</c:v>
+10/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-27/09/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2737,25 +2711,25 @@
                   <c:v>32.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.630000000000006</c:v>
+                  <c:v>23.300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.630000000000006</c:v>
+                  <c:v>23.300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.630000000000006</c:v>
+                  <c:v>23.300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.130000000000006</c:v>
+                  <c:v>15.550000000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.930000000000007</c:v>
+                  <c:v>2.7500000000000071</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.930000000000007</c:v>
+                  <c:v>2.7500000000000071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.180000000000007</c:v>
+                  <c:v>7.1054273576010019E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,11 +2757,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="152172624"/>
-        <c:axId val="152207728"/>
+        <c:axId val="148275760"/>
+        <c:axId val="133389688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152172624"/>
+        <c:axId val="148275760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2842,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152207728"/>
+        <c:crossAx val="133389688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2876,7 +2850,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152207728"/>
+        <c:axId val="133389688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,7 +2933,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152172624"/>
+        <c:crossAx val="148275760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3294,11 +3268,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="152975760"/>
-        <c:axId val="152416128"/>
+        <c:axId val="148248656"/>
+        <c:axId val="148678056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152975760"/>
+        <c:axId val="148248656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,7 +3346,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152416128"/>
+        <c:crossAx val="148678056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3380,7 +3354,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152416128"/>
+        <c:axId val="148678056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,7 +3437,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152975760"/>
+        <c:crossAx val="148248656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3752,25 +3726,25 @@
                   <c:v>10.530000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.530000000000001</c:v>
+                  <c:v>7.2300000000000013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.530000000000001</c:v>
+                  <c:v>7.2300000000000013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.530000000000001</c:v>
+                  <c:v>7.2300000000000013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.530000000000001</c:v>
+                  <c:v>4.2300000000000013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.530000000000001</c:v>
+                  <c:v>3.0000000000001137E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.530000000000001</c:v>
+                  <c:v>3.0000000000001137E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.530000000000001</c:v>
+                  <c:v>3.0000000000001137E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3798,11 +3772,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="153186224"/>
-        <c:axId val="153277080"/>
+        <c:axId val="149547088"/>
+        <c:axId val="149563856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153186224"/>
+        <c:axId val="149547088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,7 +3850,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153277080"/>
+        <c:crossAx val="149563856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3884,7 +3858,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153277080"/>
+        <c:axId val="149563856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +3941,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153186224"/>
+        <c:crossAx val="149547088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4256,25 +4230,25 @@
                   <c:v>10.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.65</c:v>
+                  <c:v>7.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.65</c:v>
+                  <c:v>7.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.65</c:v>
+                  <c:v>7.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.65</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,11 +4276,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="153168280"/>
-        <c:axId val="153340536"/>
+        <c:axId val="150965560"/>
+        <c:axId val="148664120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153168280"/>
+        <c:axId val="150965560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4348,6 +4322,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4379,7 +4354,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153340536"/>
+        <c:crossAx val="148664120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4387,7 +4362,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153340536"/>
+        <c:axId val="148664120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4438,6 +4413,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4469,7 +4445,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153168280"/>
+        <c:crossAx val="150965560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4482,6 +4458,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4951,7 +4928,7 @@
   <dimension ref="A1:AB1048568"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5085,13 +5062,13 @@
     </row>
     <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5">
         <v>3.3</v>
@@ -5108,7 +5085,7 @@
         <v>32.930000000000007</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -5132,10 +5109,10 @@
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5">
         <v>2.5</v>
@@ -5146,7 +5123,7 @@
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7"/>
       <c r="K5" s="4"/>
@@ -5170,13 +5147,13 @@
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="21">
         <v>3</v>
@@ -5190,7 +5167,7 @@
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7"/>
       <c r="K6" s="4"/>
@@ -5215,10 +5192,10 @@
     <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="21">
         <v>2.25</v>
@@ -5229,7 +5206,7 @@
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7"/>
       <c r="K7" s="4"/>
@@ -5253,13 +5230,13 @@
     </row>
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="21">
         <v>3.33</v>
@@ -5273,7 +5250,7 @@
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I8" s="7"/>
       <c r="K8" s="4"/>
@@ -5298,10 +5275,10 @@
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="21">
         <v>3</v>
@@ -5312,7 +5289,7 @@
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I9" s="7"/>
       <c r="K9" s="4"/>
@@ -5336,13 +5313,13 @@
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="21">
         <v>3.2</v>
@@ -5356,7 +5333,7 @@
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7"/>
       <c r="K10" s="4"/>
@@ -5381,10 +5358,10 @@
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="21">
         <v>2.75</v>
@@ -5395,7 +5372,7 @@
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="4"/>
@@ -5419,13 +5396,13 @@
     </row>
     <row r="12" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="21">
         <v>5.4</v>
@@ -5439,7 +5416,7 @@
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I12" s="7"/>
       <c r="K12" s="4"/>
@@ -5461,13 +5438,13 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="21">
         <v>4.2</v>
@@ -5478,7 +5455,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7"/>
       <c r="K13" s="4"/>
@@ -5673,9 +5650,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5775,34 +5752,34 @@
         <v>13</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -5815,14 +5792,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="8"/>
@@ -5835,7 +5812,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
@@ -5891,7 +5868,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13">
         <f>B5</f>
@@ -5903,39 +5880,39 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>29.630000000000006</v>
+        <v>23.300000000000008</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>29.630000000000006</v>
+        <v>23.300000000000008</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>29.630000000000006</v>
+        <v>23.300000000000008</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>27.130000000000006</v>
+        <v>15.550000000000008</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>23.930000000000007</v>
+        <v>2.7500000000000071</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>23.930000000000007</v>
+        <v>2.7500000000000071</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>21.180000000000007</v>
+        <v>7.1054273576010019E-15</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>217.99000000000007</v>
+        <v>123.88000000000005</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>27.248750000000008</v>
+        <v>15.485000000000007</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -5968,13 +5945,13 @@
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="33" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -5995,7 +5972,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
@@ -6007,7 +5984,7 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>3.3</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
@@ -6019,11 +5996,11 @@
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>7.75</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>12.8</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
@@ -6035,11 +6012,11 @@
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>11.75</v>
+        <v>32.93</v>
       </c>
       <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>1.46875</v>
+        <v>4.11625</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -6051,7 +6028,7 @@
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="19">
         <f>Diogo!B9</f>
@@ -6102,7 +6079,7 @@
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="20">
         <f>Ivo!B9</f>
@@ -6113,21 +6090,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="E11" s="14">
-        <f>Ivo!E9</f>
         <v>0</v>
       </c>
       <c r="F11" s="14">
         <v>0</v>
       </c>
       <c r="G11" s="14">
-        <f>Ivo!G9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="14">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I11" s="14">
         <f>Ivo!I9</f>
@@ -6138,11 +6113,11 @@
       </c>
       <c r="K11" s="14">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>10.530000000000001</v>
       </c>
       <c r="L11" s="14">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>1.3162500000000001</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -6154,7 +6129,7 @@
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="19">
         <f>Izaquiel!B9</f>
@@ -6165,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="14">
         <f>Izaquiel!E9</f>
@@ -6175,14 +6150,12 @@
         <v>0</v>
       </c>
       <c r="G12" s="14">
-        <f>Izaquiel!G9</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H12" s="14">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I12" s="14">
-        <f>Izaquiel!I9</f>
         <v>0</v>
       </c>
       <c r="J12" s="14">
@@ -6190,11 +6163,11 @@
       </c>
       <c r="K12" s="14">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="L12" s="14">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>1.33125</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -6731,7 +6704,7 @@
   <dimension ref="A1:S1048575"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -6749,7 +6722,7 @@
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -6824,35 +6797,35 @@
       <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>56</v>
+      <c r="C3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="K3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -6865,14 +6838,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="8"/>
@@ -6885,7 +6858,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13">
         <f>SUMIF('Sprint Backlog'!C:C,"=Diogo",'Sprint Backlog'!D:D)</f>
@@ -6941,7 +6914,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13">
         <f>B5</f>
@@ -7021,10 +6994,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -7045,7 +7018,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
@@ -7100,10 +7073,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="42"/>
+      <c r="A10" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="44"/>
       <c r="C10" s="14">
         <v>0</v>
       </c>
@@ -7137,18 +7110,18 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="47"/>
       <c r="C11" s="14">
         <v>0</v>
       </c>
@@ -7182,18 +7155,18 @@
         <v>0</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="46"/>
+      <c r="A12" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="48"/>
       <c r="C12" s="14">
         <v>0</v>
       </c>
@@ -7227,18 +7200,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="40"/>
+      <c r="A13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="42"/>
       <c r="C13" s="14">
         <v>0</v>
       </c>
@@ -7272,18 +7245,18 @@
         <v>0.74375000000000002</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="40"/>
+      <c r="A14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="42"/>
       <c r="C14" s="14">
         <v>0</v>
       </c>
@@ -7391,9 +7364,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7410,7 +7383,7 @@
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -7485,35 +7458,35 @@
       <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>56</v>
+      <c r="C3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="K3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -7526,14 +7499,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="8"/>
@@ -7546,7 +7519,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13">
         <f>SUMIF('Sprint Backlog'!C:C,"=Ivo",'Sprint Backlog'!D:D)</f>
@@ -7602,7 +7575,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13">
         <f>B5</f>
@@ -7614,39 +7587,39 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>10.530000000000001</v>
+        <v>7.2300000000000013</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>10.530000000000001</v>
+        <v>7.2300000000000013</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>10.530000000000001</v>
+        <v>7.2300000000000013</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>10.530000000000001</v>
+        <v>4.2300000000000013</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>10.530000000000001</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>10.530000000000001</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>10.530000000000001</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>84.240000000000009</v>
+        <v>36.540000000000013</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>10.530000000000001</v>
+        <v>4.5675000000000017</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7682,10 +7655,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -7706,7 +7679,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
@@ -7718,7 +7691,7 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
@@ -7730,11 +7703,11 @@
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
@@ -7746,11 +7719,11 @@
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3125</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -7761,10 +7734,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="42"/>
+      <c r="A10" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="44"/>
       <c r="C10" s="24">
         <v>0</v>
       </c>
@@ -7806,10 +7779,10 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="47"/>
       <c r="C11" s="24">
         <v>0</v>
       </c>
@@ -7851,15 +7824,15 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="46"/>
+      <c r="A12" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="48"/>
       <c r="C12" s="24">
         <v>0</v>
       </c>
       <c r="D12" s="24">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E12" s="24">
         <v>0</v>
@@ -7868,10 +7841,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="24">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I12" s="24">
         <v>0</v>
@@ -7881,11 +7854,11 @@
       </c>
       <c r="K12" s="24">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L12" s="24">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>1.3125</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -7896,10 +7869,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="40"/>
+      <c r="A13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="42"/>
       <c r="C13" s="24">
         <v>0</v>
       </c>
@@ -7941,10 +7914,10 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="40"/>
+      <c r="A14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="42"/>
       <c r="C14" s="24">
         <v>0</v>
       </c>
@@ -8065,8 +8038,8 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8083,7 +8056,7 @@
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -8158,35 +8131,35 @@
       <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>56</v>
+      <c r="C3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="K3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -8199,14 +8172,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="8"/>
@@ -8219,7 +8192,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13">
         <f>SUMIF('Sprint Backlog'!C:C,"=Izaquiel",'Sprint Backlog'!D:D)</f>
@@ -8275,7 +8248,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13">
         <f>B5</f>
@@ -8287,39 +8260,39 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>7.65</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>7.65</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>7.65</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>5.4</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>0</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>0</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>0</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>85.2</v>
+        <v>39</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>10.65</v>
+        <v>4.875</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -8355,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -8379,7 +8352,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
@@ -8391,7 +8364,7 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
@@ -8403,11 +8376,11 @@
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
@@ -8419,11 +8392,11 @@
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.33125</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -8434,10 +8407,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="42"/>
+      <c r="A10" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="44"/>
       <c r="C10" s="14">
         <v>0</v>
       </c>
@@ -8479,15 +8452,15 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="47"/>
       <c r="C11" s="14">
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="14">
         <v>0</v>
@@ -8496,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="14">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H11" s="14">
         <v>0</v>
@@ -8509,11 +8482,11 @@
       </c>
       <c r="K11" s="14">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="L11" s="14">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>0.65625</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -8524,10 +8497,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="46"/>
+      <c r="A12" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="48"/>
       <c r="C12" s="14">
         <v>0</v>
       </c>
@@ -8569,10 +8542,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="40"/>
+      <c r="A13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="42"/>
       <c r="C13" s="14">
         <v>0</v>
       </c>
@@ -8614,10 +8587,10 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="40"/>
+      <c r="A14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="42"/>
       <c r="C14" s="14">
         <v>0</v>
       </c>
@@ -8634,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="14">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -8644,11 +8617,11 @@
       </c>
       <c r="K14" s="14">
         <f>SUM(C14:J14)</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="L14" s="14">
         <f>K14/A$3</f>
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
